--- a/Hello Daffodils/Daily Sales & Allocation/Daily Sales Nov'2020/Daily Sales 29.11.20.xlsx
+++ b/Hello Daffodils/Daily Sales & Allocation/Daily Sales Nov'2020/Daily Sales 29.11.20.xlsx
@@ -1055,6 +1055,27 @@
     <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1086,27 +1107,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1419,10 +1419,10 @@
   <dimension ref="A1:AX65536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AR40" sqref="AR40"/>
+      <selection pane="bottomRight" activeCell="AW28" sqref="AW28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1472,108 +1472,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="31.5" thickBot="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="97"/>
-      <c r="AR1" s="97"/>
-      <c r="AS1" s="97"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="104"/>
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="104"/>
+      <c r="AK1" s="104"/>
+      <c r="AL1" s="104"/>
+      <c r="AM1" s="104"/>
+      <c r="AN1" s="104"/>
+      <c r="AO1" s="104"/>
+      <c r="AP1" s="104"/>
+      <c r="AQ1" s="104"/>
+      <c r="AR1" s="104"/>
+      <c r="AS1" s="104"/>
     </row>
     <row r="2" spans="1:50" ht="19.5" thickBot="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="105"/>
-      <c r="T2" s="105"/>
-      <c r="U2" s="105"/>
-      <c r="V2" s="105"/>
-      <c r="W2" s="105"/>
-      <c r="X2" s="105"/>
-      <c r="Y2" s="105"/>
-      <c r="Z2" s="105"/>
-      <c r="AA2" s="105"/>
-      <c r="AB2" s="105"/>
-      <c r="AC2" s="105"/>
-      <c r="AD2" s="105"/>
-      <c r="AE2" s="105"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="105"/>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="105"/>
-      <c r="AS2" s="105"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="112"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="112"/>
+      <c r="AN2" s="112"/>
+      <c r="AO2" s="112"/>
+      <c r="AP2" s="112"/>
+      <c r="AQ2" s="112"/>
+      <c r="AR2" s="112"/>
+      <c r="AS2" s="112"/>
     </row>
     <row r="3" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="55"/>
       <c r="D3" s="55"/>
       <c r="E3" s="56">
@@ -1600,10 +1600,10 @@
       <c r="L3" s="86">
         <v>300</v>
       </c>
-      <c r="M3" s="104">
+      <c r="M3" s="111">
         <v>300</v>
       </c>
-      <c r="N3" s="99">
+      <c r="N3" s="106">
         <v>0</v>
       </c>
       <c r="O3" s="57">
@@ -2447,7 +2447,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="67">
-        <v>11750</v>
+        <v>12078</v>
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="67"/>
@@ -2481,19 +2481,19 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="77">
         <f t="shared" si="6"/>
-        <v>21000</v>
+        <v>21328</v>
       </c>
       <c r="AD12" s="7">
         <f t="shared" si="0"/>
-        <v>11750</v>
+        <v>12078</v>
       </c>
       <c r="AE12" s="19">
         <f t="shared" si="1"/>
-        <v>323.125</v>
+        <v>332.14499999999998</v>
       </c>
       <c r="AF12" s="19">
         <f t="shared" si="2"/>
-        <v>111.625</v>
+        <v>114.741</v>
       </c>
       <c r="AG12" s="9">
         <f t="shared" si="7"/>
@@ -2520,15 +2520,15 @@
       </c>
       <c r="AQ12" s="21">
         <f t="shared" si="9"/>
-        <v>20087.5</v>
+        <v>20406.48</v>
       </c>
       <c r="AR12" s="74">
         <f t="shared" si="4"/>
-        <v>199.5</v>
+        <v>202.61599999999999</v>
       </c>
       <c r="AS12" s="74">
         <f t="shared" si="5"/>
-        <v>-135.5</v>
+        <v>-132.38400000000001</v>
       </c>
       <c r="AT12" s="93">
         <v>11750</v>
@@ -2539,6 +2539,7 @@
       <c r="AV12" s="15" t="s">
         <v>68</v>
       </c>
+      <c r="AW12" s="100"/>
     </row>
     <row r="13" spans="1:50" ht="17.25">
       <c r="A13" s="64">
@@ -3744,14 +3745,14 @@
       <c r="AU26" s="6"/>
     </row>
     <row r="27" spans="1:47" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="34">
         <f t="shared" ref="D27:AS27" si="16">SUM(D5:D26)</f>
-        <v>246945</v>
+        <v>247273</v>
       </c>
       <c r="E27" s="34">
         <f t="shared" si="16"/>
@@ -3851,19 +3852,19 @@
       </c>
       <c r="AC27" s="34">
         <f t="shared" si="16"/>
-        <v>269085</v>
+        <v>269413</v>
       </c>
       <c r="AD27" s="34">
         <f t="shared" si="16"/>
-        <v>246945</v>
+        <v>247273</v>
       </c>
       <c r="AE27" s="34">
         <f t="shared" si="16"/>
-        <v>6790.9875000000002</v>
+        <v>6800.0075000000006</v>
       </c>
       <c r="AF27" s="34">
         <f t="shared" si="16"/>
-        <v>2345.9775</v>
+        <v>2349.0934999999999</v>
       </c>
       <c r="AG27" s="34">
         <f t="shared" si="16"/>
@@ -3907,24 +3908,24 @@
       </c>
       <c r="AQ27" s="91">
         <f t="shared" si="16"/>
-        <v>259523.8125</v>
+        <v>259842.79250000001</v>
       </c>
       <c r="AR27" s="91">
         <f t="shared" si="16"/>
-        <v>2556.3074999999999</v>
+        <v>2559.4234999999999</v>
       </c>
       <c r="AS27" s="35">
         <f t="shared" si="16"/>
-        <v>396.30749999999989</v>
+        <v>399.42349999999988</v>
       </c>
       <c r="AT27" s="27"/>
       <c r="AU27" s="27"/>
     </row>
     <row r="28" spans="1:47" ht="15.75" thickBot="1">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="101"/>
+      <c r="B28" s="108"/>
       <c r="C28" s="50"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52">
@@ -4007,9 +4008,9 @@
       <c r="AN28" s="50"/>
       <c r="AO28" s="92"/>
       <c r="AP28" s="92"/>
-      <c r="AQ28" s="108"/>
-      <c r="AR28" s="108"/>
-      <c r="AS28" s="109"/>
+      <c r="AQ28" s="97"/>
+      <c r="AR28" s="97"/>
+      <c r="AS28" s="98"/>
     </row>
     <row r="29" spans="1:47" ht="15.75">
       <c r="A29" s="6"/>
@@ -4027,10 +4028,10 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="AQ29" s="110">
+      <c r="AQ29" s="99">
         <v>11797</v>
       </c>
-      <c r="AR29" s="110" t="s">
+      <c r="AR29" s="99" t="s">
         <v>57</v>
       </c>
       <c r="AS29" s="20" t="s">
@@ -4051,15 +4052,15 @@
       <c r="L30" s="13"/>
       <c r="M30" s="6"/>
       <c r="O30" s="4">
-        <v>259514</v>
+        <v>259833</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="AQ30" s="110">
+      <c r="AQ30" s="99">
         <v>14046</v>
       </c>
-      <c r="AR30" s="110" t="s">
+      <c r="AR30" s="99" t="s">
         <v>48</v>
       </c>
       <c r="AS30" s="20" t="s">
@@ -4087,10 +4088,10 @@
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="AQ31" s="110">
+      <c r="AQ31" s="99">
         <v>14894</v>
       </c>
-      <c r="AR31" s="110" t="s">
+      <c r="AR31" s="99" t="s">
         <v>57</v>
       </c>
       <c r="AS31" s="20" t="s">
@@ -4109,17 +4110,17 @@
       <c r="K32" s="6"/>
       <c r="L32" s="13"/>
       <c r="M32" s="6"/>
-      <c r="O32" s="107">
+      <c r="O32" s="96">
         <f>O30+O31</f>
-        <v>285109</v>
+        <v>285428</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="AQ32" s="110">
+      <c r="AQ32" s="99">
         <v>500</v>
       </c>
-      <c r="AR32" s="110" t="s">
+      <c r="AR32" s="99" t="s">
         <v>50</v>
       </c>
       <c r="AS32" s="20" t="s">
@@ -4139,10 +4140,10 @@
       <c r="K33" s="6"/>
       <c r="L33" s="13"/>
       <c r="M33" s="6"/>
-      <c r="O33" s="111">
-        <v>41237</v>
-      </c>
-      <c r="P33" s="112" t="s">
+      <c r="O33" s="100">
+        <v>41556</v>
+      </c>
+      <c r="P33" s="101" t="s">
         <v>71</v>
       </c>
       <c r="Q33" s="6"/>
@@ -4164,7 +4165,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="J34" s="15"/>
-      <c r="O34" s="106">
+      <c r="O34" s="95">
         <f>O32-O33</f>
         <v>243872</v>
       </c>
@@ -4174,9 +4175,9 @@
       <c r="AB34" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ34" s="106">
+      <c r="AQ34" s="95">
         <f>AQ27-AQ33</f>
-        <v>218286.8125</v>
+        <v>218605.79250000001</v>
       </c>
     </row>
     <row r="35" spans="1:45">
@@ -4207,7 +4208,7 @@
       <c r="G36" s="6"/>
       <c r="AQ36" s="24">
         <f>AQ34+AQ35</f>
-        <v>225585.8125</v>
+        <v>225904.79250000001</v>
       </c>
     </row>
     <row r="37" spans="1:45">
